--- a/models/classifiers/feature_importances/feat_imp_classification/lightgbm_fried_feature_importances.xlsx
+++ b/models/classifiers/feature_importances/feat_imp_classification/lightgbm_fried_feature_importances.xlsx
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FORCEPREHENSION</t>
+          <t>EXAMCLIN02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EXAMCLIN02</t>
+          <t>MMSE06LANGAGE1_SQ003_</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SCORE TOTAL SPPB</t>
+          <t>FORCEPREHENSION</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccZWaist_follow-up</t>
+          <t>Sway_Density_YO_follow-up</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccYWaist_baseline</t>
+          <t>leftHandV2_baseline</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
